--- a/lantai_2.xlsx
+++ b/lantai_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PROJECTS\Python Projects\war_kedokteran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA196B4D-B546-4D92-9699-147BA76F00CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609B19A-5703-4491-8F9E-86A9776CDDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>nama</t>
   </si>
@@ -38,9 +38,6 @@
     <t>tindakan</t>
   </si>
   <si>
-    <t>Fitrio</t>
-  </si>
-  <si>
     <t>Departemen</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>drg. Novi Tenripada, Sp.Pros</t>
+  </si>
+  <si>
+    <t>Fake</t>
   </si>
 </sst>
 </file>
@@ -951,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -987,22 +987,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1051,13 +1091,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1076,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1098,37 +1138,37 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
